--- a/pomoyka/Avto_site_.xlsx
+++ b/pomoyka/Avto_site_.xlsx
@@ -117,15 +117,9 @@
     <t>Диагностика зависимой подвески</t>
   </si>
   <si>
-    <t>Диагностика \ ремонт рычагов и их сайлентблоков</t>
-  </si>
-  <si>
     <t>Диагностика \ ремонт амортизаторов</t>
   </si>
   <si>
-    <t>Диагностика \ ремонт подшипника ступицы</t>
-  </si>
-  <si>
     <t>Диагностика \ ремонт шаровой опоры</t>
   </si>
   <si>
@@ -135,12 +129,6 @@
     <t>Замена резиноуплотнительных элементов и ступичных подшипников</t>
   </si>
   <si>
-    <t>Диагностика \ ремонт рулевых реек и наконечников</t>
-  </si>
-  <si>
-    <t>Ремонт или замена ШРУСов</t>
-  </si>
-  <si>
     <t>Замена тормозных колодок, трубок, шлангов и суппортов</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
   </si>
   <si>
     <t>Признаки неисправности подвески</t>
-  </si>
-  <si>
-    <t>Диагностика \ ремонт опоры амортизаторов</t>
   </si>
   <si>
     <t>Наличие подтеков трансмиссионного масла</t>
@@ -265,6 +250,21 @@
   </si>
   <si>
     <t>RemontAvto24</t>
+  </si>
+  <si>
+    <t>Диагностика  рычагов и их сайлентблоков</t>
+  </si>
+  <si>
+    <t>Диагностика \регулировка\ремонт подшипника ступицы</t>
+  </si>
+  <si>
+    <t>Диагностика \ ремонт рулевых реек(колонок) и наконечников</t>
+  </si>
+  <si>
+    <t>Замена ШРУСов</t>
+  </si>
+  <si>
+    <t>Диагностика  опоры амортизаторов</t>
   </si>
 </sst>
 </file>
@@ -311,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +342,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -581,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -649,9 +673,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -684,6 +705,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,7 +1023,7 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1052,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -1035,7 +1068,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -1043,7 +1076,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -1051,7 +1084,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -1067,7 +1100,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="38" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -1076,7 +1109,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>9</v>
@@ -1086,7 +1119,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>9</v>
@@ -1094,9 +1127,9 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>9</v>
@@ -1106,7 +1139,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>9</v>
@@ -1116,7 +1149,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>9</v>
@@ -1124,9 +1157,9 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>9</v>
@@ -1134,9 +1167,9 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>9</v>
@@ -1146,7 +1179,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>9</v>
@@ -1156,7 +1189,7 @@
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>9</v>
@@ -1165,8 +1198,8 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>42</v>
+      <c r="A19" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>9</v>
@@ -1175,8 +1208,8 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>43</v>
+      <c r="A20" s="36" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>9</v>
@@ -1185,8 +1218,8 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>44</v>
+      <c r="A21" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>9</v>
@@ -1195,8 +1228,8 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>45</v>
+      <c r="A22" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>9</v>
@@ -1211,80 +1244,80 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1"/>
@@ -1297,70 +1330,70 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="29" t="s">
+      <c r="A37" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="29" t="s">
+      <c r="A38" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="29" t="s">
+      <c r="A39" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="1"/>
@@ -1373,70 +1406,70 @@
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="1"/>
@@ -1445,10 +1478,10 @@
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="10" t="s">
@@ -1506,7 +1539,7 @@
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D57" s="15">
         <v>5</v>
@@ -1518,7 +1551,7 @@
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D58" s="15">
         <v>6</v>
@@ -1540,43 +1573,43 @@
         <v>8</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="36" t="s">
-        <v>62</v>
+      <c r="A62" s="35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
-        <v>63</v>
+      <c r="A63" s="33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="35" t="s">
-        <v>68</v>
+      <c r="A68" s="34" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/pomoyka/Avto_site_.xlsx
+++ b/pomoyka/Avto_site_.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>Раздел:</t>
   </si>
@@ -42,9 +42,6 @@
     <t>http://unit-car.com/diagnostika-i-remont.html</t>
   </si>
   <si>
-    <t>Обслуживание подвески</t>
-  </si>
-  <si>
     <t>Ремонт подвески автомобиля</t>
   </si>
   <si>
@@ -75,18 +72,12 @@
     <t>http://sto-auto.com.ua/%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82</t>
   </si>
   <si>
-    <t>Ремонт дисков сцепления</t>
-  </si>
-  <si>
     <t>Признаки износа сцепления</t>
   </si>
   <si>
     <t>Ремонт главного цилиндра сцепления</t>
   </si>
   <si>
-    <t>Чистка сцепления</t>
-  </si>
-  <si>
     <t>Замена \ ремонт выжимного подшипника</t>
   </si>
   <si>
@@ -99,24 +90,15 @@
     <t>Регулировка передней подвески</t>
   </si>
   <si>
-    <t>Регулировка задней подвески</t>
-  </si>
-  <si>
     <t>Диагностика подвески автомобиля</t>
   </si>
   <si>
     <t>Принципы подвески автомобиля</t>
   </si>
   <si>
-    <t>Ремонт подвески своими руками</t>
-  </si>
-  <si>
     <t>Виды независимой подвески</t>
   </si>
   <si>
-    <t>Диагностика зависимой подвески</t>
-  </si>
-  <si>
     <t>Диагностика \ ремонт амортизаторов</t>
   </si>
   <si>
@@ -133,12 +115,6 @@
   </si>
   <si>
     <t>Увеличение клиренса</t>
-  </si>
-  <si>
-    <t>Ремонт и прокатка дисков</t>
-  </si>
-  <si>
-    <t>Признаки неисправности подвески</t>
   </si>
   <si>
     <t>Наличие подтеков трансмиссионного масла</t>
@@ -264,7 +240,46 @@
     <t>Замена ШРУСов</t>
   </si>
   <si>
-    <t>Диагностика  опоры амортизаторов</t>
+    <t>Avto</t>
+  </si>
+  <si>
+    <t>ВАЗ 2108</t>
+  </si>
+  <si>
+    <t>ВАЗ 2109</t>
+  </si>
+  <si>
+    <t>ВАЗ 2110</t>
+  </si>
+  <si>
+    <t>ВАЗ 2111</t>
+  </si>
+  <si>
+    <t>ВАЗ 2112</t>
+  </si>
+  <si>
+    <t>ВАЗ 2113</t>
+  </si>
+  <si>
+    <t>ВАЗ 2114</t>
+  </si>
+  <si>
+    <t>ВАЗ 2115</t>
+  </si>
+  <si>
+    <t>ВАЗ Granta</t>
+  </si>
+  <si>
+    <t>ВАЗ Largus</t>
+  </si>
+  <si>
+    <t>ВАЗ Priora</t>
+  </si>
+  <si>
+    <t>ВАЗ Kalina</t>
+  </si>
+  <si>
+    <t>ВАЗ Vesta</t>
   </si>
 </sst>
 </file>
@@ -311,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,12 +359,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,14 +369,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -596,6 +599,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -706,17 +722,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1020,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,584 +1061,573 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="B5" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="B7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>9</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>36</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>9</v>
-      </c>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>9</v>
+      <c r="A17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>9</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>9</v>
+      <c r="A19" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>9</v>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>9</v>
+      <c r="A21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>9</v>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>11</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>11</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>11</v>
+      <c r="A28" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>11</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>11</v>
+      <c r="A30" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>11</v>
+      <c r="A31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>16</v>
-      </c>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="28" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
         <v>16</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>16</v>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>16</v>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>16</v>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>16</v>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="15">
+        <v>2</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="15">
+        <v>3</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="15">
+        <v>4</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="15">
+        <v>5</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="15">
+        <v>6</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="15">
+        <v>7</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="16">
+        <v>8</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="3" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="14">
-        <v>1</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="15">
-        <v>2</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="15">
-        <v>3</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="15">
-        <v>4</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="3" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="15">
-        <v>5</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="D58" s="15">
-        <v>6</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="15">
-        <v>7</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="16">
-        <v>8</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="35" t="s">
-        <v>57</v>
+      <c r="A62" s="39" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
-        <v>58</v>
+      <c r="A63" s="38" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
-        <v>59</v>
+      <c r="A64" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
-        <v>60</v>
+      <c r="A65" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>61</v>
+      <c r="A66" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="34" t="s">
-        <v>63</v>
+      <c r="A67" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="16" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" location="!/?words=%D0%BF%D1%80%D0%B8%D0%BD%D1%86%D0%B8%D0%BF%D1%8B%20%D0%BF%D0%BE%D0%B4%D0%B2%D0%B5%D1%81%D0%BA%D0%B8%20%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B1%D0%B8%D0%BB%D1%8F" display="https://wordstat.yandex.ru/ - !/?words=%D0%BF%D1%80%D0%B8%D0%BD%D1%86%D0%B8%D0%BF%D1%8B%20%D0%BF%D0%BE%D0%B4%D0%B2%D0%B5%D1%81%D0%BA%D0%B8%20%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B1%D0%B8%D0%BB%D1%8F"/>
-    <hyperlink ref="E60" r:id="rId2"/>
-    <hyperlink ref="E59" r:id="rId3"/>
-    <hyperlink ref="E58" r:id="rId4"/>
-    <hyperlink ref="E57" r:id="rId5"/>
-    <hyperlink ref="E56" r:id="rId6"/>
-    <hyperlink ref="E55" r:id="rId7"/>
-    <hyperlink ref="E54" r:id="rId8"/>
-    <hyperlink ref="E53" r:id="rId9"/>
+    <hyperlink ref="A4" r:id="rId1" location="!/?words=%D0%BF%D1%80%D0%B8%D0%BD%D1%86%D0%B8%D0%BF%D1%8B%20%D0%BF%D0%BE%D0%B4%D0%B2%D0%B5%D1%81%D0%BA%D0%B8%20%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B1%D0%B8%D0%BB%D1%8F" display="https://wordstat.yandex.ru/ - !/?words=%D0%BF%D1%80%D0%B8%D0%BD%D1%86%D0%B8%D0%BF%D1%8B%20%D0%BF%D0%BE%D0%B4%D0%B2%D0%B5%D1%81%D0%BA%D0%B8%20%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B1%D0%B8%D0%BB%D1%8F"/>
+    <hyperlink ref="E51" r:id="rId2"/>
+    <hyperlink ref="E50" r:id="rId3"/>
+    <hyperlink ref="E49" r:id="rId4"/>
+    <hyperlink ref="E48" r:id="rId5"/>
+    <hyperlink ref="E47" r:id="rId6"/>
+    <hyperlink ref="E46" r:id="rId7"/>
+    <hyperlink ref="E45" r:id="rId8"/>
+    <hyperlink ref="E44" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/pomoyka/Avto_site_.xlsx
+++ b/pomoyka/Avto_site_.xlsx
@@ -8,15 +8,26 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="ВАЗ 2108" sheetId="2" r:id="rId2"/>
+    <sheet name="ВАЗ 2109" sheetId="3" r:id="rId3"/>
+    <sheet name="ВАЗ 2110" sheetId="4" r:id="rId4"/>
+    <sheet name="ВАЗ 2111" sheetId="5" r:id="rId5"/>
+    <sheet name="ВАЗ 2112" sheetId="6" r:id="rId6"/>
+    <sheet name="ВАЗ 2113" sheetId="7" r:id="rId7"/>
+    <sheet name="ВАЗ 2114" sheetId="8" r:id="rId8"/>
+    <sheet name="ВАЗ 2115" sheetId="9" r:id="rId9"/>
+    <sheet name="ВАЗ LARGUS" sheetId="10" r:id="rId10"/>
+    <sheet name="ВАЗ KALINA" sheetId="11" r:id="rId11"/>
+    <sheet name="ВАЗ VESTA" sheetId="12" r:id="rId12"/>
+    <sheet name="ВАЗ PRIORA" sheetId="13" r:id="rId13"/>
+    <sheet name="ВАЗ GRANTA" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="81">
   <si>
     <t>Раздел:</t>
   </si>
@@ -281,12 +292,33 @@
   <si>
     <t>ВАЗ Vesta</t>
   </si>
+  <si>
+    <t>Раздел</t>
+  </si>
+  <si>
+    <t>РЕМОНТ ДВИГАТЕЛЯ</t>
+  </si>
+  <si>
+    <t>Подраздел</t>
+  </si>
+  <si>
+    <t>Статья</t>
+  </si>
+  <si>
+    <t>РЕМОНТ ХОДОВОЙ</t>
+  </si>
+  <si>
+    <t>РЕМОНТ ТРАНСМИСИИ</t>
+  </si>
+  <si>
+    <t>РЕМОНТ КУЗОВА</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +355,23 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -370,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -616,12 +665,221 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -733,6 +991,85 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1038,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1385,7 @@
     <col min="2" max="2" width="54.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" customWidth="1"/>
-    <col min="5" max="5" width="94" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1634,26 +1971,7231 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="55"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+    </row>
+    <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="51"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="54"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:A74"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="55"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+    </row>
+    <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="51"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="54"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:A74"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="55"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+    </row>
+    <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="51"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="54"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:A74"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="55"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+    </row>
+    <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="51"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="54"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:A74"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="55"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+    </row>
+    <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="51"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="54"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:A74"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="76" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="55"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+    </row>
+    <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="51"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="54"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="A55:A74"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B29:B33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="55"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+    </row>
+    <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="51"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="54"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:A74"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="55"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+    </row>
+    <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="51"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="54"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:A74"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="55"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+    </row>
+    <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="51"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="54"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:A74"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="55"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+    </row>
+    <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="51"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="54"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:A74"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="55"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+    </row>
+    <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="51"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="54"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:A74"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="55"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+    </row>
+    <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="51"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="54"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:A74"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="55"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+    </row>
+    <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="54"/>
+    </row>
+    <row r="54" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="51"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+    </row>
+    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="51"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="54"/>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:A74"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>